--- a/biology/Botanique/Sapin/Sapin.xlsx
+++ b/biology/Botanique/Sapin/Sapin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abies
 Abies est un genre d'arbres conifères faisant partie de la famille des Pinaceae et originaires des régions tempérées de l'hémisphère nord. Ils sont reconnaissables au mode de fixation des aiguilles sur la tige ainsi qu'à leurs cônes dressés qui se désagrègent à maturité.
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Abies est un genre monoïque caractérisé par des cônes grands et dressés, de forme conique et solitaires, axillaires aux rameaux et répartis sur la partie haute du sommet. Ils apparaissent sur les rameaux âgés d’un an et arrivent à maturité en une saison. Ils ont tendance à s’aplatir sur les arbres les plus vieux. Les cônes se désagrègent notamment à maturité dû à l’assèchement, seul l’axe principal appelé rachis reste en place sur le rameau formant une pointe. Les écailles peuvent être réniformes ou cunéiformes avec une base pédicellée et portent une bractée saillante et lobée. Les graines sont protégées par une membrane. 
 Les chatons sont axillaires, de forme sphérique ou conique apparaissant au printemps et regroupés sur les jeunes rameaux. Les microsporophylles sont arrangées spiralement autour de l’axe du cône. Les graines produites par le genre sont ailées avec un sac de résine à la jonction entre l’aile et la graine.
@@ -522,7 +536,7 @@
 Les feuilles sont linéaires-lancéolées, plus ou moins aplaties, sessiles et arrangées spiralement le long du rameau avec un tors à la base du pétiole. Elles peuvent être arrondies ou dentelées à leur apex. Elles persistent 5 ans ou plus selon l’espèce (jusqu’à 63 ans chez A. amabilis). On observe parfois la présence de bandes blanches sur les aiguilles qui sont marquées par la présence de trichome blanc, avec souvent un renfoncement qui sont des bandes de stomates de part et d’autre de la nervure centrale. 
 Il existe souvent une différence entre le feuillage exposé à la lumière et le feuillage à l’ombre : le feuillage exposé au soleil est dirigé vers le haut de façon incurvée (le feuillage décrit dans la partie description est le feuillage mature se trouvant à l’ombre).
 L’écorce est fine et douce chez les jeunes individus et va en vieillissant créer des sillons et s’effriter en écailles. Elle peut éventuellement créer une protection contre le feu. L’écorce, les feuilles et les cônes des individus du genre sont parfois parsemées de vésicules résinifères, appelées « poches de résine » . 
-Les jeunes pousses ont de 3 à 10 cotylédons. Les bourgeons sont de forme ovale ou oblongue avec un apex arrondi ou pointu. Les bourgeons sont entourés par 4-5 bourgeons axillaires[1],[2],[3].
+Les jeunes pousses ont de 3 à 10 cotylédons. Les bourgeons sont de forme ovale ou oblongue avec un apex arrondi ou pointu. Les bourgeons sont entourés par 4-5 bourgeons axillaires.
 </t>
         </is>
       </c>
@@ -551,10 +565,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le radical du mot sapin est sap-, suivi du suffixe -in. En fin de compte, le terme d'origine est sap « sapin », voire « pin », dans les langues et les dialectes régionaux (langue d'oïl, franco-provençal et occitan).
-C'est un substantif gaulois, peut-être d'origine pré-celtique, d'un *sapo, continué par l'ancien français et certains dialectes, que l'on rapproche du gallois sybwydd « sapin » (&lt; *sapo-uidu- ?) et du vieux cornique sibnit « sapin blanc ». On dispose des noms de personnes antiques Sapalo, Sapauidus, Sapaudus, Sappolus, etc. On trouve en toponymie : la Savoie, dont le nom procède de Sapaudia (&lt; *sapa-uidiā). Le mot sapin remonte plus précisément au bas-latin sappīnus (Varron r. r. I 6, 4; Pline 16, 61)[4], hybridisation composée de sapa (sève) et du latin pīnus[5].
+C'est un substantif gaulois, peut-être d'origine pré-celtique, d'un *sapo, continué par l'ancien français et certains dialectes, que l'on rapproche du gallois sybwydd « sapin » (&lt; *sapo-uidu- ?) et du vieux cornique sibnit « sapin blanc ». On dispose des noms de personnes antiques Sapalo, Sapauidus, Sapaudus, Sappolus, etc. On trouve en toponymie : la Savoie, dont le nom procède de Sapaudia (&lt; *sapa-uidiā). Le mot sapin remonte plus précisément au bas-latin sappīnus (Varron r. r. I 6, 4; Pline 16, 61), hybridisation composée de sapa (sève) et du latin pīnus.
 « Sapin » désignait jadis aussi le matériau, le bois, avant de prendre le sens du genre latin abies, mot continué d'ailleurs par l'occitan avet, abet et l'italien abete.
 Un sapay ou une sapaie est l'ancien terme pour nommer à la fois une sapinière, terme attesté pour la première fois en 1632, et une pinède, emprunt récent à l'occitan (pineda), mentionné en 1842.
 Une sapinière est donc une forêt où le sapin domine.
@@ -588,8 +604,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Espèces natives (n) ou introduites (i) en Europe
-Abies alba - Sapin blanc ou sapin pectiné (n)
+          <t>Espèces natives (n) ou introduites (i) en Europe</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Abies alba - Sapin blanc ou sapin pectiné (n)
 Abies amabilis - Sapin gracieux (i)
 Abies balsamea - Sapin baumier (i)
 Abies balsamea phanerolepis - Sapin baumier (i)
@@ -603,13 +624,86 @@
 Abies borisii-regis - Sapin de Bulgarie (n)
 Abies pinsapo - Sapin d'Andalousie (n)
 Abies procera - Sapin de l'Orégon (i)
-Abies sibirica - Sapin de Sibérie (n)
-Classification et répartition
-Les Sapins font partie de la famille des Pinaceae, et de la sous-famille des Abietoideae. Les Cèdres et les Tsugas sont parmi leurs plus proches parents.
-La classification des espèces à l'intérieur du genre est classiquement basée sur la morphologie des cônes femelles. On distinguait alors dix sections. Des études génétiques ultérieures ont cependant réduit ce nombre à neuf, en rassemblant les sections Grandis et Oiamel. Il a également été confirmé que toutes les espèces originaires d'Amérique du Nord sont d'origine monophylétique[6].
-Les études génétiques ont pour l'essentiel confirmé la classification morphologique. Celle-ci reflète également l'aire de répartition des espèces. Les derniers travaux de révision du genre Abies par Farjon (2010) permettent de distinguer 46 espèces de sapins et de situer les relations entre les différentes espèces de la manière suivante[1].
-Section Balsamea
-Asie boréale, Amérique du Nord, et hautes montagnes plus au sud.
+Abies sibirica - Sapin de Sibérie (n)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sapin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sapin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Classification et répartition</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Sapins font partie de la famille des Pinaceae, et de la sous-famille des Abietoideae. Les Cèdres et les Tsugas sont parmi leurs plus proches parents.
+La classification des espèces à l'intérieur du genre est classiquement basée sur la morphologie des cônes femelles. On distinguait alors dix sections. Des études génétiques ultérieures ont cependant réduit ce nombre à neuf, en rassemblant les sections Grandis et Oiamel. Il a également été confirmé que toutes les espèces originaires d'Amérique du Nord sont d'origine monophylétique.
+Les études génétiques ont pour l'essentiel confirmé la classification morphologique. Celle-ci reflète également l'aire de répartition des espèces. Les derniers travaux de révision du genre Abies par Farjon (2010) permettent de distinguer 46 espèces de sapins et de situer les relations entre les différentes espèces de la manière suivante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sapin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sapin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Classification et répartition</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Section Balsamea</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Asie boréale, Amérique du Nord, et hautes montagnes plus au sud.
 Sous-section Laterales
 Abies sibirica - Sapin de Sibérie
 Abies balsamea - Sapin baumier
@@ -621,36 +715,226 @@
 Abies nephrolepis - Sapin de Khinghan
 Abies veitchii - Sapin de Veitch
 Hybride
-Abies × sibirico-nephrolepis
-Section Grandis
-Ouest des États-Unis au Mexique et au Guatemala
+Abies × sibirico-nephrolepis</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sapin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sapin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Classification et répartition</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Section Grandis</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ouest des États-Unis au Mexique et au Guatemala
 Abies grandis - Sapin de Vancouver
 Abies concolor - Sapin du Colorado
 Abies durangensis - Sapin de Durango
-Abies guatemalensis - Sapin du Guatemala
-Section Oiamel
-Mexique, en haute montagne
+Abies guatemalensis - Sapin du Guatemala</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sapin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sapin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Classification et répartition</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Section Oiamel</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Mexique, en haute montagne
 Sous-section Religiosae
 Abies religiosa
 Abies vejarii - Sapin de Vejar
 Sous-section Hickelianae
 Abies hickelii - Sapin de Hickel
-Abies hidalgensis
-Section Abies
-Europe et Moyen-Orient
+Abies hidalgensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sapin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sapin</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Classification et répartition</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Section Abies</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Europe et Moyen-Orient
 Abies nebrodensis - Sapin de Sicile
 Abies alba - Sapin blanc
 Abies cephalonica - Sapin de Céphalonie
 Abies nordmanniana - Sapin de Nordmann ou Sapin du Caucase
 Abies cilicica - Sapin de Cilicie
 Abies borisii-regis - Sapin de Bulgarie, hybride entre le Sapin blanc et le Sapin de Céphalonie.
-Abies bornmuelleriana - Sapin de Turquie
-Section Piceaster
-Sud de l'Espagne et Afrique du Nord
+Abies bornmuelleriana - Sapin de Turquie</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sapin</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sapin</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Classification et répartition</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Section Piceaster</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sud de l'Espagne et Afrique du Nord
 Abies pinsapo - Sapin d'Andalousie, avec comme variété le Sapin du Maroc, anciennement Abies marocana
-Abies numidica - Sapin de Numidie, considéré par certains auteurs comme une variété du Sapin d'Andalousie.
-Section Momi
-Asie et Himalaya
+Abies numidica - Sapin de Numidie, considéré par certains auteurs comme une variété du Sapin d'Andalousie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sapin</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sapin</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Classification et répartition</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Section Momi</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Asie et Himalaya
 Sous-section Homolepoides
 Abies homolepis - Sapin de Nikko
 Abies recurvata - Sapin de Min
@@ -662,13 +946,89 @@
 Abies holophylla - Sapin de Mandchourie
 Abies chensiensis - Sapin du Chensi
 Abies pindrow - Sapin argenté
-Abies ziyuanensis - Sapin du Ziyuan
-Section Amabilis
-Côtes du Pacifique d'Amérique du Nord et du Japon, hautes montagnes pluvieuses
+Abies ziyuanensis - Sapin du Ziyuan</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sapin</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sapin</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Classification et répartition</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Section Amabilis</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Côtes du Pacifique d'Amérique du Nord et du Japon, hautes montagnes pluvieuses
 Abies amabilis - Sapin gracieux
-Abies mariesii - Sapin de Maries
-Section Pseudopicea
-Sino-Himalayen en haute montagne
+Abies mariesii - Sapin de Maries</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sapin</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sapin</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Classification et répartition</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Section Pseudopicea</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Sino-Himalayen en haute montagne
 Sous-section Delavayianae
 Abies delavayi - Sapin de Delavay
 Abies fabri - Sapin de Faber
@@ -679,42 +1039,120 @@
 Abies fanjingshanensis - Sapin du Fanjingshan
 Abies yuanbaoshanensis - Sapin du Yuanbaoshan
 Sous-section Squamatae
-Abies squamata - Sapin écailleux
-Section Nobilis
-Ouest des États-Unis, en haute montagne
+Abies squamata - Sapin écailleux</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sapin</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sapin</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Classification et répartition</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Section Nobilis</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Ouest des États-Unis, en haute montagne
 Abies procera - Sapin noble ou Sapin de l'Orégon
-Abies magnifica - Sapin rouge
-Section Bracteata
-Côtes de Californie
+Abies magnifica - Sapin rouge</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sapin</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sapin</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Classification et répartition</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Section Bracteata</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Côtes de Californie
 Abies bracteata - Sapin de Sainte-Lucie ou Sapin de Santa Lucia</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sapin</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sapin</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sapin</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sapin</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			En Amérique du Nord
@@ -723,31 +1161,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Sapin</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sapin</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sapin</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sapin</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Plante hôte</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Les chenilles des papillons de nuit (hétérocères) suivants (classés par famille) se nourrissent de sapin :
 Écaille martre (Erebidae),
@@ -756,33 +1196,35 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Sapin</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sapin</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sapin</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sapin</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Calendrier républicain</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Le sapin voit son nom attribué au 14e jour du mois de frimaire du calendrier républicain[7].</t>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Le sapin voit son nom attribué au 14e jour du mois de frimaire du calendrier républicain.</t>
         </is>
       </c>
     </row>
